--- a/Results/phylosignal_monthly_results.xlsx
+++ b/Results/phylosignal_monthly_results.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20367"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CTC\Desktop\Research\Current_projects\intra_annual_urbanness\Results\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\CTC\Research\Current_projects\intra_annual_urbanness\Results\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0BE0DF6-13AA-4386-A19D-D36F8F0B42CB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15750" windowHeight="20430"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6930" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="phylosignal_monthly_results" sheetId="1" r:id="rId1"/>
@@ -84,9 +85,9 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="0.0000"/>
+    <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
   <fonts count="19" x14ac:knownFonts="1">
     <font>
@@ -594,10 +595,10 @@
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="18" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -918,19 +919,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:G25"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="7" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="7" width="9.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
         <v>16</v>
       </c>
@@ -951,7 +952,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -959,22 +960,22 @@
         <v>3</v>
       </c>
       <c r="C2" s="2">
-        <v>0.24929999999999999</v>
+        <v>0.25840000000000002</v>
       </c>
       <c r="D2" s="2">
-        <v>6.9800000000000001E-2</v>
+        <v>7.3499999999999996E-2</v>
       </c>
       <c r="E2" s="2">
-        <v>0.16270000000000001</v>
+        <v>0.16520000000000001</v>
       </c>
       <c r="F2" s="2">
-        <v>0.18210000000000001</v>
+        <v>0.18479999999999999</v>
       </c>
       <c r="G2" s="2">
-        <v>0.40229999999999999</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+        <v>0.39150000000000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A3" s="1"/>
       <c r="B3" s="1" t="s">
         <v>17</v>
@@ -995,7 +996,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
@@ -1003,22 +1004,22 @@
         <v>3</v>
       </c>
       <c r="C4" s="2">
-        <v>0.2525</v>
+        <v>0.25119999999999998</v>
       </c>
       <c r="D4" s="2">
-        <v>6.5600000000000006E-2</v>
+        <v>6.6299999999999998E-2</v>
       </c>
       <c r="E4" s="2">
-        <v>0.1661</v>
+        <v>0.16589999999999999</v>
       </c>
       <c r="F4" s="2">
-        <v>0.18590000000000001</v>
+        <v>0.18559999999999999</v>
       </c>
       <c r="G4" s="2">
-        <v>0.4163</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+        <v>0.38990000000000002</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A5" s="1"/>
       <c r="B5" s="1" t="s">
         <v>17</v>
@@ -1039,7 +1040,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
@@ -1047,22 +1048,22 @@
         <v>3</v>
       </c>
       <c r="C6" s="2">
-        <v>0.20660000000000001</v>
+        <v>0.20569999999999999</v>
       </c>
       <c r="D6" s="2">
-        <v>4.5199999999999997E-2</v>
+        <v>4.5400000000000003E-2</v>
       </c>
       <c r="E6" s="2">
-        <v>0.1406</v>
+        <v>0.14369999999999999</v>
       </c>
       <c r="F6" s="2">
-        <v>0.15609999999999999</v>
+        <v>0.15989999999999999</v>
       </c>
       <c r="G6" s="2">
-        <v>0.32629999999999998</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+        <v>0.28710000000000002</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A7" s="1"/>
       <c r="B7" s="1" t="s">
         <v>17</v>
@@ -1071,19 +1072,19 @@
         <v>1E-4</v>
       </c>
       <c r="D7" s="2">
-        <v>1E-4</v>
+        <v>2.0000000000000001E-4</v>
       </c>
       <c r="E7" s="2">
+        <v>1E-4</v>
+      </c>
+      <c r="F7" s="2">
+        <v>1E-4</v>
+      </c>
+      <c r="G7" s="2">
         <v>2.0000000000000001E-4</v>
       </c>
-      <c r="F7" s="2">
-        <v>2.0000000000000001E-4</v>
-      </c>
-      <c r="G7" s="2">
-        <v>1E-4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
@@ -1091,43 +1092,43 @@
         <v>3</v>
       </c>
       <c r="C8" s="2">
-        <v>0.13569999999999999</v>
+        <v>0.11700000000000001</v>
       </c>
       <c r="D8" s="2">
-        <v>1.5100000000000001E-2</v>
+        <v>1.1900000000000001E-2</v>
       </c>
       <c r="E8" s="2">
         <v>0.13900000000000001</v>
       </c>
       <c r="F8" s="2">
-        <v>0.14940000000000001</v>
+        <v>0.1492</v>
       </c>
       <c r="G8" s="2">
-        <v>0.19889999999999999</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+        <v>8.3799999999999999E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A9" s="1"/>
       <c r="B9" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C9" s="2">
-        <v>8.0000000000000004E-4</v>
+        <v>4.4000000000000003E-3</v>
       </c>
       <c r="D9" s="2">
-        <v>2.5999999999999999E-2</v>
+        <v>4.5400000000000003E-2</v>
       </c>
       <c r="E9" s="2">
-        <v>4.0000000000000002E-4</v>
+        <v>2.9999999999999997E-4</v>
       </c>
       <c r="F9" s="2">
-        <v>4.0000000000000002E-4</v>
+        <v>1E-4</v>
       </c>
       <c r="G9" s="2">
-        <v>4.5699999999999998E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+        <v>0.45989999999999998</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
@@ -1135,43 +1136,43 @@
         <v>3</v>
       </c>
       <c r="C10" s="2">
-        <v>0.1318</v>
+        <v>0.1227</v>
       </c>
       <c r="D10" s="2">
-        <v>1.32E-2</v>
+        <v>1.17E-2</v>
       </c>
       <c r="E10" s="2">
-        <v>0.14030000000000001</v>
+        <v>0.1404</v>
       </c>
       <c r="F10" s="2">
-        <v>0.15240000000000001</v>
+        <v>0.15310000000000001</v>
       </c>
       <c r="G10" s="2">
-        <v>0.17030000000000001</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A11" s="1"/>
       <c r="B11" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C11" s="2">
-        <v>1.6000000000000001E-3</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="D11" s="2">
-        <v>3.32E-2</v>
+        <v>5.3499999999999999E-2</v>
       </c>
       <c r="E11" s="2">
         <v>2.0000000000000001E-4</v>
       </c>
       <c r="F11" s="2">
-        <v>2.0000000000000001E-4</v>
+        <v>5.0000000000000001E-4</v>
       </c>
       <c r="G11" s="2">
-        <v>0.28089999999999998</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
         <v>9</v>
       </c>
@@ -1179,43 +1180,43 @@
         <v>3</v>
       </c>
       <c r="C12" s="2">
-        <v>0.18740000000000001</v>
+        <v>0.1888</v>
       </c>
       <c r="D12" s="2">
-        <v>2.5100000000000001E-2</v>
+        <v>2.6800000000000001E-2</v>
       </c>
       <c r="E12" s="2">
-        <v>0.1341</v>
+        <v>0.1389</v>
       </c>
       <c r="F12" s="2">
-        <v>0.15</v>
+        <v>0.15540000000000001</v>
       </c>
       <c r="G12" s="2">
-        <v>0.43280000000000002</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+        <v>0.42920000000000003</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A13" s="1"/>
       <c r="B13" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C13" s="2">
+        <v>1E-4</v>
+      </c>
+      <c r="D13" s="2">
+        <v>3.3E-3</v>
+      </c>
+      <c r="E13" s="2">
         <v>2.0000000000000001E-4</v>
       </c>
-      <c r="D13" s="2">
-        <v>4.1000000000000003E-3</v>
-      </c>
-      <c r="E13" s="2">
-        <v>4.0000000000000002E-4</v>
-      </c>
       <c r="F13" s="2">
-        <v>5.0000000000000001E-4</v>
+        <v>2.0000000000000001E-4</v>
       </c>
       <c r="G13" s="2">
-        <v>1.4E-3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+        <v>5.3E-3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1223,31 +1224,31 @@
         <v>3</v>
       </c>
       <c r="C14" s="2">
-        <v>0.1759</v>
+        <v>0.1895</v>
       </c>
       <c r="D14" s="2">
-        <v>2.0199999999999999E-2</v>
+        <v>2.2200000000000001E-2</v>
       </c>
       <c r="E14" s="2">
-        <v>0.14480000000000001</v>
+        <v>0.1507</v>
       </c>
       <c r="F14" s="2">
-        <v>0.16189999999999999</v>
+        <v>0.16839999999999999</v>
       </c>
       <c r="G14" s="2">
-        <v>0.38419999999999999</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+        <v>0.4002</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A15" s="1"/>
       <c r="B15" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C15" s="2">
-        <v>2.0000000000000001E-4</v>
+        <v>1E-4</v>
       </c>
       <c r="D15" s="2">
-        <v>1.01E-2</v>
+        <v>9.1999999999999998E-3</v>
       </c>
       <c r="E15" s="2">
         <v>1E-4</v>
@@ -1256,10 +1257,10 @@
         <v>1E-4</v>
       </c>
       <c r="G15" s="2">
-        <v>1.24E-2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
         <v>11</v>
       </c>
@@ -1267,34 +1268,34 @@
         <v>3</v>
       </c>
       <c r="C16" s="2">
-        <v>0.13109999999999999</v>
+        <v>0.13700000000000001</v>
       </c>
       <c r="D16" s="2">
-        <v>6.7999999999999996E-3</v>
+        <v>7.0000000000000001E-3</v>
       </c>
       <c r="E16" s="2">
-        <v>0.14499999999999999</v>
+        <v>0.14949999999999999</v>
       </c>
       <c r="F16" s="2">
-        <v>0.15959999999999999</v>
+        <v>0.1651</v>
       </c>
       <c r="G16" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A17" s="1"/>
       <c r="B17" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C17" s="2">
-        <v>2.2000000000000001E-3</v>
+        <v>1.6000000000000001E-3</v>
       </c>
       <c r="D17" s="2">
-        <v>0.10489999999999999</v>
+        <v>0.1128</v>
       </c>
       <c r="E17" s="2">
-        <v>2.0000000000000001E-4</v>
+        <v>1E-4</v>
       </c>
       <c r="F17" s="2">
         <v>1E-4</v>
@@ -1303,7 +1304,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
         <v>12</v>
       </c>
@@ -1311,31 +1312,31 @@
         <v>3</v>
       </c>
       <c r="C18" s="2">
-        <v>0.19500000000000001</v>
+        <v>0.19070000000000001</v>
       </c>
       <c r="D18" s="2">
-        <v>1.5900000000000001E-2</v>
+        <v>1.46E-2</v>
       </c>
       <c r="E18" s="2">
-        <v>0.15010000000000001</v>
+        <v>0.15540000000000001</v>
       </c>
       <c r="F18" s="2">
-        <v>0.16250000000000001</v>
+        <v>0.16839999999999999</v>
       </c>
       <c r="G18" s="2">
-        <v>0.39610000000000001</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+        <v>0.36349999999999999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A19" s="1"/>
       <c r="B19" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C19" s="2">
-        <v>1E-4</v>
+        <v>2.0000000000000001E-4</v>
       </c>
       <c r="D19" s="2">
-        <v>2.1499999999999998E-2</v>
+        <v>3.2300000000000002E-2</v>
       </c>
       <c r="E19" s="2">
         <v>1E-4</v>
@@ -1344,10 +1345,10 @@
         <v>1E-4</v>
       </c>
       <c r="G19" s="2">
-        <v>1.15E-2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+        <v>0.1212</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
         <v>13</v>
       </c>
@@ -1355,43 +1356,43 @@
         <v>3</v>
       </c>
       <c r="C20" s="2">
-        <v>0.15090000000000001</v>
+        <v>0.15210000000000001</v>
       </c>
       <c r="D20" s="2">
-        <v>1.0200000000000001E-2</v>
+        <v>8.6E-3</v>
       </c>
       <c r="E20" s="2">
-        <v>0.1222</v>
+        <v>0.1263</v>
       </c>
       <c r="F20" s="2">
-        <v>0.13239999999999999</v>
+        <v>0.1363</v>
       </c>
       <c r="G20" s="2">
-        <v>0.16020000000000001</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+        <v>6.0299999999999999E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A21" s="1"/>
       <c r="B21" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C21" s="2">
-        <v>2.9999999999999997E-4</v>
+        <v>5.0000000000000001E-4</v>
       </c>
       <c r="D21" s="2">
-        <v>5.6800000000000003E-2</v>
+        <v>8.3099999999999993E-2</v>
       </c>
       <c r="E21" s="2">
-        <v>1.6999999999999999E-3</v>
+        <v>8.0000000000000004E-4</v>
       </c>
       <c r="F21" s="2">
-        <v>1.9E-3</v>
+        <v>1.4E-3</v>
       </c>
       <c r="G21" s="2">
-        <v>0.1037</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+        <v>0.39479999999999998</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
         <v>14</v>
       </c>
@@ -1399,43 +1400,43 @@
         <v>3</v>
       </c>
       <c r="C22" s="2">
-        <v>0.18679999999999999</v>
+        <v>0.19969999999999999</v>
       </c>
       <c r="D22" s="2">
-        <v>3.1699999999999999E-2</v>
+        <v>3.2000000000000001E-2</v>
       </c>
       <c r="E22" s="2">
-        <v>0.13700000000000001</v>
+        <v>0.13880000000000001</v>
       </c>
       <c r="F22" s="2">
-        <v>0.15329999999999999</v>
+        <v>0.1552</v>
       </c>
       <c r="G22" s="2">
-        <v>0.27350000000000002</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+        <v>0.2321</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A23" s="1"/>
       <c r="B23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C23" s="2">
-        <v>2.0000000000000001E-4</v>
+        <v>1E-4</v>
       </c>
       <c r="D23" s="2">
-        <v>8.9999999999999998E-4</v>
+        <v>1.6000000000000001E-3</v>
       </c>
       <c r="E23" s="2">
         <v>2.0000000000000001E-4</v>
       </c>
       <c r="F23" s="2">
-        <v>4.0000000000000002E-4</v>
+        <v>2.9999999999999997E-4</v>
       </c>
       <c r="G23" s="2">
-        <v>4.1000000000000003E-3</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+        <v>1.6899999999999998E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
         <v>15</v>
       </c>
@@ -1443,22 +1444,22 @@
         <v>3</v>
       </c>
       <c r="C24" s="2">
-        <v>0.24629999999999999</v>
+        <v>0.26140000000000002</v>
       </c>
       <c r="D24" s="2">
-        <v>6.3200000000000006E-2</v>
+        <v>6.5600000000000006E-2</v>
       </c>
       <c r="E24" s="2">
-        <v>0.16250000000000001</v>
+        <v>0.1658</v>
       </c>
       <c r="F24" s="2">
-        <v>0.18190000000000001</v>
+        <v>0.1855</v>
       </c>
       <c r="G24" s="2">
-        <v>0.38529999999999998</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+        <v>0.3947</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A25" s="3"/>
       <c r="B25" s="3" t="s">
         <v>17</v>
